--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44721</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44811</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>43348</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43417</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43440</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43453</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43478</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43480</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43486</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43489</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43508</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43509</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43511</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43537</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43567</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43578</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43635</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43650</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43662</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43714</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43721</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43746</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43761</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43770</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43776</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43783</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43790</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43794</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43808</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43809</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43838</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43854</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43855</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43871</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43888</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43895</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43901</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43906</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43927</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43936</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43942</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43962</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43979</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43980</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43983</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>43997</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44005</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44022</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44025</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44026</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44060</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44067</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44081</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>44096</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44118</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44123</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44134</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44144</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44158</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44721</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44811</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>43348</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43417</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43440</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43453</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43478</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43480</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43486</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43489</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43508</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43509</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43511</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43537</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43567</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43578</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43635</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43650</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43662</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43714</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43721</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43746</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43761</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43770</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43776</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43783</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43790</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43794</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43808</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43809</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43838</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43854</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43855</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43871</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43888</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43895</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43901</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43906</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43927</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43936</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43942</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43962</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43979</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43980</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43983</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>43997</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44005</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44022</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44025</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44026</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44060</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44067</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44081</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>44096</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44118</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44123</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44134</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44144</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44158</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y452"/>
+  <dimension ref="A1:Y453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44721</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44811</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>43348</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43417</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43440</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43453</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43478</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43480</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43486</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43489</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43508</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43509</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43511</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43537</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43567</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43578</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43635</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43650</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43662</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43714</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43721</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43746</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43761</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43770</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43776</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43783</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43790</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43794</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43808</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43809</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43838</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43854</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43855</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43871</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43888</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43895</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43901</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43906</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43927</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43936</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43942</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43962</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43979</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43980</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43983</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>43997</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44005</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44022</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44025</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44026</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44060</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44067</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44081</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>44096</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44118</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44123</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44134</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44144</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44158</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
       </c>
       <c r="R451" s="2" t="inlineStr"/>
     </row>
-    <row r="452">
+    <row r="452" ht="15" customHeight="1">
       <c r="A452" t="inlineStr">
         <is>
           <t>A 40268-2023</t>
@@ -28027,7 +28027,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28078,6 +28078,63 @@
         <v>0</v>
       </c>
       <c r="R452" s="2" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>A 41844-2023</t>
+        </is>
+      </c>
+      <c r="B453" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C453" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>GÄVLE</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N453" t="n">
+        <v>0</v>
+      </c>
+      <c r="O453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R453" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44721</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44811</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>43348</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43417</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43440</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43453</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43478</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43480</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43486</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43489</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43508</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43509</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43511</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43537</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43567</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43578</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43635</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43650</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43662</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43714</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43721</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43746</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43761</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43770</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43776</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43783</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43790</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43794</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43808</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43809</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43838</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43854</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43855</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43871</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43888</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43895</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43901</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43906</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43927</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43936</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43942</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43962</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43979</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43980</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43983</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>43997</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44005</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44022</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44025</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44026</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44060</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44067</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44081</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>44096</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44118</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44123</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44134</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44144</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44158</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44721</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44811</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>43348</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43417</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43440</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43453</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43478</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43480</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43486</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43489</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43508</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43509</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43511</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43537</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43567</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43578</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43635</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43650</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43662</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43714</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43721</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43746</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43761</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43770</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43776</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43783</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43790</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43794</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43808</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43809</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43838</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43854</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43855</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43871</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43888</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43895</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43901</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43906</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43927</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43936</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43942</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43962</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43979</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43980</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43983</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>43997</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44005</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44022</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44025</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44026</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44060</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44067</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44081</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>44096</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44118</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44123</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44134</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44144</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44158</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44721</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44811</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>43348</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43417</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43440</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43453</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43478</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43480</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43486</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43489</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43508</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43509</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43511</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43537</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43567</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43578</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43635</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43650</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43662</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43714</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43721</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43746</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43761</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43770</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43776</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43783</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43790</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43794</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43808</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43809</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43838</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43854</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43855</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43871</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43888</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43895</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43901</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43906</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43927</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43936</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43942</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43962</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43979</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43980</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43983</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>43997</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44005</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44022</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44025</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44026</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44060</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44067</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44081</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>44096</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44118</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44123</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44134</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44144</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44158</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44721</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44811</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>43348</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43417</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43440</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43453</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43478</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43480</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43486</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43489</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43508</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43509</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43511</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43537</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43567</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43578</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43635</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43650</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43662</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43714</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43721</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43746</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43761</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43770</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43776</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43783</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43790</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43794</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43808</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43809</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43838</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43854</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43855</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43871</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43888</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43895</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43901</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43906</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43927</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43936</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43942</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43962</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43979</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43980</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43983</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>43997</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44005</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44022</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44025</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44026</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44060</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44067</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44081</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>44096</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44118</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44123</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44134</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44144</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44158</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44721</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44811</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>43348</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43417</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43440</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43453</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43478</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43480</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43486</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43489</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43508</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43509</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43511</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43537</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43567</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43578</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43635</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43650</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43662</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43714</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43721</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43746</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43761</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43770</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43776</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43783</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43790</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43794</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43808</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43809</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43838</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43854</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43855</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43871</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43888</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43895</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43901</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43906</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43927</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43936</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43942</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43962</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43979</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43980</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43983</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>43997</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44005</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44022</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44025</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44026</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44060</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44067</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44081</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>44096</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44118</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44123</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44134</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44144</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44158</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44658</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44721</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44790</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44811</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>44840</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44977</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45055</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45120</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43332</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>43348</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43382</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43403</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43417</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43418</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43424</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43430</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43431</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43440</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43453</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>43473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43476</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43478</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43480</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43486</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43489</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43495</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43508</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43509</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43510</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43511</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43530</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43537</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>43565</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>43567</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>43578</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>43614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43635</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43650</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43662</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43696</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43698</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43706</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43707</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>43714</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         <v>43718</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43721</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>43728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>43732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>43735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43746</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43755</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43759</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43761</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43767</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43770</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43776</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43777</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>43783</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>43790</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43794</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43808</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43809</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43812</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>43818</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>43838</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>43850</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>43854</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43855</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43871</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43872</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43873</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>43879</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43888</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43895</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43901</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43906</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43927</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43936</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43942</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43951</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>43955</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43959</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43962</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43978</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>43979</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43980</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>43983</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>43997</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44005</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44006</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>44014</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11528,7 +11528,7 @@
         <v>44015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44022</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44025</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44026</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44043</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44060</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44062</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44067</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>44068</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>44078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44081</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44084</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44085</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44095</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>44096</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44109</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44112</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44118</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44123</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44125</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44126</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>44127</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44134</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>44140</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>44144</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44146</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44147</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44152</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>44154</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14699,7 +14699,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44158</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>44160</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21698,7 +21698,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21760,7 +21760,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22645,7 +22645,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22759,7 +22759,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23768,7 +23768,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23830,7 +23830,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23887,7 +23887,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24187,7 +24187,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24244,7 +24244,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24425,7 +24425,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25005,7 +25005,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25067,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25600,7 +25600,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25838,7 +25838,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26076,7 +26076,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26624,7 +26624,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26681,7 +26681,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26743,7 +26743,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27276,7 +27276,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27561,7 +27561,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27618,7 +27618,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,31 +636,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 18337-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 18337-2020.xlsx", "A 18337-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 18337-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 18337-2020.png", "A 18337-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 18337-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 18337-2020.png", "A 18337-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 18337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 18337-2020.docx", "A 18337-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 18337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 18337-2020.docx", "A 18337-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 18337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 18337-2020.docx", "A 18337-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 18337-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 18337-2020.docx", "A 18337-2020")</f>
         <v/>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -735,27 +735,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 59885-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 59885-2021.xlsx", "A 59885-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 59885-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 59885-2021.png", "A 59885-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 59885-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 59885-2021.docx", "A 59885-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 59885-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 59885-2021.docx", "A 59885-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 59885-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 59885-2021.docx", "A 59885-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 59885-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 59885-2021.docx", "A 59885-2021")</f>
         <v/>
       </c>
     </row>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,31 +829,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 67329-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 67329-2019.xlsx", "A 67329-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 67329-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 67329-2019.png", "A 67329-2019")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 67329-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 67329-2019.png", "A 67329-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 67329-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 67329-2019.docx", "A 67329-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 67329-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 67329-2019.docx", "A 67329-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 67329-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 67329-2019.docx", "A 67329-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 67329-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 67329-2019.docx", "A 67329-2019")</f>
         <v/>
       </c>
     </row>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,27 +927,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 45278-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 45278-2022.xlsx", "A 45278-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 45278-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 45278-2022.png", "A 45278-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 45278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 45278-2022.docx", "A 45278-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 45278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 45278-2022.docx", "A 45278-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 45278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 45278-2022.docx", "A 45278-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 45278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 45278-2022.docx", "A 45278-2022")</f>
         <v/>
       </c>
     </row>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,27 +1019,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 47377-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 47377-2019.xlsx", "A 47377-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 47377-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 47377-2019.png", "A 47377-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 47377-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 47377-2019.docx", "A 47377-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 47377-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 47377-2019.docx", "A 47377-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 47377-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 47377-2019.docx", "A 47377-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 47377-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 47377-2019.docx", "A 47377-2019")</f>
         <v/>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,27 +1111,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 67390-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 67390-2019.xlsx", "A 67390-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 67390-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 67390-2019.png", "A 67390-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 67390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 67390-2019.docx", "A 67390-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 67390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 67390-2019.docx", "A 67390-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 67390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 67390-2019.docx", "A 67390-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 67390-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 67390-2019.docx", "A 67390-2019")</f>
         <v/>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,27 +1198,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 32677-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 32677-2023.xlsx", "A 32677-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 32677-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 32677-2023.png", "A 32677-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 32677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 32677-2023.docx", "A 32677-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 32677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 32677-2023.docx", "A 32677-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 32677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 32677-2023.docx", "A 32677-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 32677-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 32677-2023.docx", "A 32677-2023")</f>
         <v/>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,27 +1284,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 13261-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 13261-2021.xlsx", "A 13261-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 13261-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 13261-2021.png", "A 13261-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 13261-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 13261-2021.docx", "A 13261-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 13261-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 13261-2021.docx", "A 13261-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 13261-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 13261-2021.docx", "A 13261-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 13261-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 13261-2021.docx", "A 13261-2021")</f>
         <v/>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,27 +1375,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 20198-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 20198-2021.xlsx", "A 20198-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 20198-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 20198-2021.png", "A 20198-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 20198-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 20198-2021.docx", "A 20198-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 20198-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 20198-2021.docx", "A 20198-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 20198-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 20198-2021.docx", "A 20198-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 20198-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 20198-2021.docx", "A 20198-2021")</f>
         <v/>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,31 +1461,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 15365-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 15365-2023.xlsx", "A 15365-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 15365-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 15365-2023.png", "A 15365-2023")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 15365-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 15365-2023.png", "A 15365-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 15365-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 15365-2023.docx", "A 15365-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 15365-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 15365-2023.docx", "A 15365-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 15365-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 15365-2023.docx", "A 15365-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 15365-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 15365-2023.docx", "A 15365-2023")</f>
         <v/>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,27 +1556,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 16499-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 16499-2023.xlsx", "A 16499-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 16499-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 16499-2023.png", "A 16499-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 16499-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 16499-2023.docx", "A 16499-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 16499-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 16499-2023.docx", "A 16499-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 16499-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 16499-2023.docx", "A 16499-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 16499-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 16499-2023.docx", "A 16499-2023")</f>
         <v/>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,27 +1647,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 18332-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 18332-2023.xlsx", "A 18332-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 18332-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 18332-2023.png", "A 18332-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 18332-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 18332-2023.docx", "A 18332-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 18332-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 18332-2023.docx", "A 18332-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 18332-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 18332-2023.docx", "A 18332-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 18332-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 18332-2023.docx", "A 18332-2023")</f>
         <v/>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,27 +1738,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 31541-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 31541-2023.xlsx", "A 31541-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 31541-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 31541-2023.png", "A 31541-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 31541-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 31541-2023.docx", "A 31541-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 31541-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 31541-2023.docx", "A 31541-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 31541-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 31541-2023.docx", "A 31541-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 31541-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 31541-2023.docx", "A 31541-2023")</f>
         <v/>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1828,27 +1828,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 22616-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 22616-2019.xlsx", "A 22616-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 22616-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 22616-2019.png", "A 22616-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 22616-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 22616-2019.docx", "A 22616-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 22616-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 22616-2019.docx", "A 22616-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 22616-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 22616-2019.docx", "A 22616-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 22616-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 22616-2019.docx", "A 22616-2019")</f>
         <v/>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,45 +1918,45 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 58168-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 58168-2020.xlsx", "A 58168-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 58168-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 58168-2020.png", "A 58168-2020")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 58168-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 58168-2020.png", "A 58168-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 58168-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 58168-2020.docx", "A 58168-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 58168-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 58168-2020.docx", "A 58168-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 58168-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 58168-2020.docx", "A 58168-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 58168-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 58168-2020.docx", "A 58168-2020")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 14569-2021</t>
+          <t>A 62316-2020</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44279</v>
+        <v>44160</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1970,17 +1970,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,45 +2008,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 14569-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 62316-2020.xlsx", "A 62316-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 14569-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 62316-2020.png", "A 62316-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 14569-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 62316-2020.docx", "A 62316-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 14569-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 62316-2020.docx", "A 62316-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 14569-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 62316-2020.docx", "A 62316-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 14569-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 62316-2020.docx", "A 62316-2020")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 66495-2021</t>
+          <t>A 14569-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44519</v>
+        <v>44279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,17 +2058,22 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2083,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2093,45 +2098,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 66495-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 14569-2021.xlsx", "A 14569-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 66495-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 14569-2021.png", "A 14569-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 66495-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 14569-2021.docx", "A 14569-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 66495-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 14569-2021.docx", "A 14569-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 66495-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 14569-2021.docx", "A 14569-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 66495-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 14569-2021.docx", "A 14569-2021")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 6779-2022</t>
+          <t>A 66495-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44602</v>
+        <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2143,13 +2148,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2183,45 +2183,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Skogsklocka</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 6779-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 66495-2021.xlsx", "A 66495-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 6779-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 66495-2021.png", "A 66495-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 6779-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 66495-2021.docx", "A 66495-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 6779-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 66495-2021.docx", "A 66495-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 6779-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 66495-2021.docx", "A 66495-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 6779-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 66495-2021.docx", "A 66495-2021")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15102-2022</t>
+          <t>A 6779-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44658</v>
+        <v>44602</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2273,45 +2273,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Sumpviol</t>
+          <t>Skogsklocka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 15102-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 6779-2022.xlsx", "A 6779-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 15102-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 6779-2022.png", "A 6779-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 15102-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 6779-2022.docx", "A 6779-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 15102-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 6779-2022.docx", "A 6779-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 15102-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 6779-2022.docx", "A 6779-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 15102-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 6779-2022.docx", "A 6779-2022")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 23511-2022</t>
+          <t>A 15102-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44721</v>
+        <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,11 +2325,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.9</v>
+        <v>4.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2363,45 +2363,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Sumpviol</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 23511-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 15102-2022.xlsx", "A 15102-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 23511-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 15102-2022.png", "A 15102-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 23511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 15102-2022.docx", "A 15102-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 23511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 15102-2022.docx", "A 15102-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 23511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 15102-2022.docx", "A 15102-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 23511-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 15102-2022.docx", "A 15102-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 33812-2022</t>
+          <t>A 23511-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44790</v>
+        <v>44721</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2413,18 +2413,23 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>7.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2438,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2448,45 +2453,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 33812-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 23511-2022.xlsx", "A 23511-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 33812-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 23511-2022.png", "A 23511-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 33812-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 23511-2022.docx", "A 23511-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 33812-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 23511-2022.docx", "A 23511-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 33812-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 23511-2022.docx", "A 23511-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 33812-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 23511-2022.docx", "A 23511-2022")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 37927-2022</t>
+          <t>A 33812-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44811</v>
+        <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2499,19 +2504,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2523,59 +2528,55 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 37927-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 33812-2022.xlsx", "A 33812-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 37927-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 33812-2022.png", "A 33812-2022")</f>
         <v/>
       </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 37927-2022.png")</f>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 33812-2022.docx", "A 33812-2022")</f>
         <v/>
       </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 37927-2022.docx")</f>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 33812-2022.docx", "A 33812-2022")</f>
         <v/>
       </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 37927-2022.docx")</f>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 33812-2022.docx", "A 33812-2022")</f>
         <v/>
       </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 37927-2022.docx")</f>
-        <v/>
-      </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 37927-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 33812-2022.docx", "A 33812-2022")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 45241-2022</t>
+          <t>A 37927-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44840</v>
+        <v>44811</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2587,13 +2588,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>22</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2605,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2617,55 +2613,59 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 45241-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 37927-2022.xlsx", "A 37927-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 45241-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 37927-2022.png", "A 37927-2022")</f>
         <v/>
       </c>
+      <c r="U24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 37927-2022.png", "A 37927-2022")</f>
+        <v/>
+      </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 45241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 37927-2022.docx", "A 37927-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 45241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 37927-2022.docx", "A 37927-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 45241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 37927-2022.docx", "A 37927-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 45241-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 37927-2022.docx", "A 37927-2022")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 8622-2023</t>
+          <t>A 45241-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44977</v>
+        <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2677,8 +2677,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>9.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2690,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2702,59 +2707,55 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 8622-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 45241-2022.xlsx", "A 45241-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 8622-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 45241-2022.png", "A 45241-2022")</f>
         <v/>
       </c>
-      <c r="U25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 8622-2023.png")</f>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 45241-2022.docx", "A 45241-2022")</f>
         <v/>
       </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 8622-2023.docx")</f>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 45241-2022.docx", "A 45241-2022")</f>
         <v/>
       </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 8622-2023.docx")</f>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 45241-2022.docx", "A 45241-2022")</f>
         <v/>
       </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 8622-2023.docx")</f>
-        <v/>
-      </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 8622-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 45241-2022.docx", "A 45241-2022")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 20232-2023</t>
+          <t>A 8622-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45055</v>
+        <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2766,13 +2767,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>12.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2806,45 +2802,49 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Stor låsbräken</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 20232-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 8622-2023.xlsx", "A 8622-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 20232-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 8622-2023.png", "A 8622-2023")</f>
         <v/>
       </c>
+      <c r="U26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/knärot/A 8622-2023.png", "A 8622-2023")</f>
+        <v/>
+      </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 20232-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 8622-2023.docx", "A 8622-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 20232-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 8622-2023.docx", "A 8622-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 20232-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 8622-2023.docx", "A 8622-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 20232-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 8622-2023.docx", "A 8622-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 32254-2023</t>
+          <t>A 20232-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45120</v>
+        <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2856,20 +2856,25 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>12.7</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2884,52 +2889,52 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Stor låsbräken</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 32254-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 20232-2023.xlsx", "A 20232-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 32254-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 20232-2023.png", "A 20232-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 32254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 20232-2023.docx", "A 20232-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 32254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 20232-2023.docx", "A 20232-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 32254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 20232-2023.docx", "A 20232-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 32254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 20232-2023.docx", "A 20232-2023")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 36861-2018</t>
+          <t>A 32254-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43332</v>
+        <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2942,17 +2947,17 @@
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
@@ -2966,27 +2971,55 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Slåtterfibbla</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/artfynd/A 32254-2023.xlsx", "A 32254-2023")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/kartor/A 32254-2023.png", "A 32254-2023")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomål/A 32254-2023.docx", "A 32254-2023")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/klagomålsmail/A 32254-2023.docx", "A 32254-2023")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsyn/A 32254-2023.docx", "A 32254-2023")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAVLE/tillsynsmail/A 32254-2023.docx", "A 32254-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 41117-2018</t>
+          <t>A 36861-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43348</v>
+        <v>43332</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2999,7 +3032,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3036,14 +3069,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 44238-2018</t>
+          <t>A 41117-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43360</v>
+        <v>43348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3055,13 +3088,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3098,14 +3126,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 59762-2018</t>
+          <t>A 44238-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43382</v>
+        <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3123,7 +3151,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3160,14 +3188,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 57113-2018</t>
+          <t>A 59762-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43403</v>
+        <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3179,8 +3207,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3217,14 +3250,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 59123-2018</t>
+          <t>A 57113-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43411</v>
+        <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3236,13 +3269,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3279,14 +3307,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59115-2018</t>
+          <t>A 59123-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3304,7 +3332,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3341,14 +3369,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 58965-2018</t>
+          <t>A 59115-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43413</v>
+        <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3362,11 +3390,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3403,14 +3431,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59172-2018</t>
+          <t>A 58965-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43417</v>
+        <v>43413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3424,11 +3452,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3465,14 +3493,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62768-2018</t>
+          <t>A 59172-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3490,7 +3518,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3527,14 +3555,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 59397-2018</t>
+          <t>A 62768-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43418</v>
+        <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3546,8 +3574,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3584,14 +3617,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 63067-2018</t>
+          <t>A 59397-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3603,13 +3636,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3646,14 +3674,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 64795-2018</t>
+          <t>A 63067-2018</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43423</v>
+        <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3665,8 +3693,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,14 +3736,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 61617-2018</t>
+          <t>A 64795-2018</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43424</v>
+        <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3723,7 +3756,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3760,14 +3793,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62909-2018</t>
+          <t>A 61617-2018</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43426</v>
+        <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3780,7 +3813,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3817,14 +3850,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 63980-2018</t>
+          <t>A 62909-2018</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43430</v>
+        <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3837,7 +3870,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3874,14 +3907,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 64168-2018</t>
+          <t>A 63980-2018</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3894,7 +3927,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>10.2</v>
+        <v>6.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3931,14 +3964,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 64539-2018</t>
+          <t>A 64168-2018</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43431</v>
+        <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3951,7 +3984,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>10.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3988,14 +4021,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 67764-2018</t>
+          <t>A 64539-2018</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43440</v>
+        <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4008,7 +4041,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4045,14 +4078,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 69772-2018</t>
+          <t>A 67764-2018</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43447</v>
+        <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4065,7 +4098,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4102,14 +4135,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 69846-2018</t>
+          <t>A 69772-2018</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4122,7 +4155,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4159,14 +4192,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 69840-2018</t>
+          <t>A 69846-2018</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4179,7 +4212,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4216,14 +4249,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 69851-2018</t>
+          <t>A 69840-2018</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4236,7 +4269,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4273,14 +4306,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 69719-2018</t>
+          <t>A 69851-2018</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4293,7 +4326,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4330,14 +4363,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 69726-2018</t>
+          <t>A 69719-2018</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4350,7 +4383,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4387,14 +4420,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 71498-2018</t>
+          <t>A 69726-2018</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43453</v>
+        <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4407,7 +4440,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4444,14 +4477,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 71527-2018</t>
+          <t>A 71498-2018</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43454</v>
+        <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4463,13 +4496,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4506,14 +4534,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 1447-2019</t>
+          <t>A 71527-2018</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43473</v>
+        <v>43454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4525,8 +4553,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4563,14 +4596,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2512-2019</t>
+          <t>A 1447-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43476</v>
+        <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4616,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4620,14 +4653,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2644-2019</t>
+          <t>A 2512-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43478</v>
+        <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4673,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4677,14 +4710,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2840-2019</t>
+          <t>A 2644-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43479</v>
+        <v>43478</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4730,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4734,14 +4767,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3356-2019</t>
+          <t>A 2840-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43480</v>
+        <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4787,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4791,14 +4824,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3508-2019</t>
+          <t>A 3356-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43481</v>
+        <v>43480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4844,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4848,14 +4881,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4019-2019</t>
+          <t>A 3508-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43482</v>
+        <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4901,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4905,14 +4938,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 6191-2019</t>
+          <t>A 4019-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43486</v>
+        <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4958,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>9.4</v>
+        <v>4.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4962,14 +4995,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 6215-2019</t>
+          <t>A 6191-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +5015,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5019,14 +5052,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6234-2019</t>
+          <t>A 6215-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5072,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5076,14 +5109,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5581-2019</t>
+          <t>A 6234-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43489</v>
+        <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5129,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5133,14 +5166,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 5608-2019</t>
+          <t>A 5581-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5186,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5190,14 +5223,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 5641-2019</t>
+          <t>A 5608-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5243,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5247,14 +5280,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5634-2019</t>
+          <t>A 5641-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5300,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5304,14 +5337,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7684-2019</t>
+          <t>A 5634-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43493</v>
+        <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5357,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5361,14 +5394,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6864-2019</t>
+          <t>A 7684-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43495</v>
+        <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5414,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5418,14 +5451,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8310-2019</t>
+          <t>A 6864-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43502</v>
+        <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5438,7 +5471,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5475,14 +5508,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9639-2019</t>
+          <t>A 8310-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43508</v>
+        <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5495,7 +5528,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5532,14 +5565,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9852-2019</t>
+          <t>A 9639-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43509</v>
+        <v>43508</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5552,7 +5585,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5589,14 +5622,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10030-2019</t>
+          <t>A 9852-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43510</v>
+        <v>43509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5609,7 +5642,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5646,14 +5679,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10316-2019</t>
+          <t>A 10030-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43511</v>
+        <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5666,7 +5699,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5703,14 +5736,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 13562-2019</t>
+          <t>A 10316-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43530</v>
+        <v>43511</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5723,7 +5756,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5760,14 +5793,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14923-2019</t>
+          <t>A 13562-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43537</v>
+        <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5780,7 +5813,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5817,14 +5850,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18398-2019</t>
+          <t>A 14923-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43559</v>
+        <v>43537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5836,13 +5869,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5879,14 +5907,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 18473-2019</t>
+          <t>A 18398-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5898,8 +5926,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5936,14 +5969,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 19418-2019</t>
+          <t>A 18473-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43565</v>
+        <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5956,7 +5989,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5993,14 +6026,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19891-2019</t>
+          <t>A 19418-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43567</v>
+        <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6013,7 +6046,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6050,14 +6083,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19856-2019</t>
+          <t>A 19891-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6070,7 +6103,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6107,14 +6140,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 20858-2019</t>
+          <t>A 19856-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43578</v>
+        <v>43567</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6127,7 +6160,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6164,14 +6197,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 20872-2019</t>
+          <t>A 20858-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6184,7 +6217,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>9.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6221,14 +6254,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 21347-2019</t>
+          <t>A 20872-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43579</v>
+        <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6241,7 +6274,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6278,14 +6311,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 22609-2019</t>
+          <t>A 21347-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43588</v>
+        <v>43579</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6298,7 +6331,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6335,14 +6368,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 22617-2019</t>
+          <t>A 22609-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6355,7 +6388,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6392,14 +6425,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 22611-2019</t>
+          <t>A 22617-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6412,7 +6445,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6449,14 +6482,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24677-2019</t>
+          <t>A 22611-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43601</v>
+        <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6469,7 +6502,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6506,14 +6539,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25306-2019</t>
+          <t>A 24677-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43605</v>
+        <v>43601</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6526,7 +6559,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6563,14 +6596,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26464-2019</t>
+          <t>A 25306-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43612</v>
+        <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6582,13 +6615,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6625,14 +6653,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 27118-2019</t>
+          <t>A 26464-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43614</v>
+        <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6644,8 +6672,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6682,14 +6715,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28316-2019</t>
+          <t>A 27118-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43623</v>
+        <v>43614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6735,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6739,14 +6772,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28559-2019</t>
+          <t>A 28316-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43626</v>
+        <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6758,13 +6791,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6801,14 +6829,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30567-2019</t>
+          <t>A 28559-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43635</v>
+        <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6820,8 +6848,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>19.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6858,14 +6891,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30581-2019</t>
+          <t>A 30567-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,7 +6911,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6915,14 +6948,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30821-2019</t>
+          <t>A 30581-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43636</v>
+        <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6934,13 +6967,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6977,14 +7005,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33228-2019</t>
+          <t>A 30821-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43650</v>
+        <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6996,8 +7024,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7034,14 +7067,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33580-2019</t>
+          <t>A 33228-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43651</v>
+        <v>43650</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7053,13 +7086,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7096,14 +7124,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 35208-2019</t>
+          <t>A 33580-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43662</v>
+        <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7121,7 +7149,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7158,14 +7186,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 41483-2019</t>
+          <t>A 35208-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43696</v>
+        <v>43662</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7179,11 +7207,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7220,14 +7248,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40440-2019</t>
+          <t>A 41483-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7239,8 +7267,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7277,14 +7310,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41223-2019</t>
+          <t>A 40440-2019</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43698</v>
+        <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7297,7 +7330,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7334,14 +7367,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41977-2019</t>
+          <t>A 41223-2019</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43700</v>
+        <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7354,7 +7387,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7391,14 +7424,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43287-2019</t>
+          <t>A 41977-2019</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43706</v>
+        <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7410,13 +7443,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7453,14 +7481,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43610-2019</t>
+          <t>A 43287-2019</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43707</v>
+        <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7474,11 +7502,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7515,14 +7543,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45358-2019</t>
+          <t>A 43610-2019</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>43714</v>
+        <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7534,8 +7562,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7572,14 +7605,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46014-2019</t>
+          <t>A 45358-2019</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43718</v>
+        <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7591,13 +7624,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7634,14 +7662,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46444-2019</t>
+          <t>A 46014-2019</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43719</v>
+        <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7653,8 +7681,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7691,14 +7724,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46442-2019</t>
+          <t>A 46444-2019</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7748,14 +7781,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47378-2019</t>
+          <t>A 46442-2019</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>43721</v>
+        <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7767,13 +7800,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7810,14 +7838,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 48642-2019</t>
+          <t>A 47378-2019</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7829,8 +7857,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7867,14 +7900,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48647-2019</t>
+          <t>A 48642-2019</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7887,7 +7920,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7924,14 +7957,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 49573-2019</t>
+          <t>A 48647-2019</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43732</v>
+        <v>43728</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7943,13 +7976,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7986,14 +8014,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 50333-2019</t>
+          <t>A 49573-2019</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>43735</v>
+        <v>43732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8007,11 +8035,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8048,14 +8076,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52743-2019</t>
+          <t>A 50333-2019</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>43746</v>
+        <v>43735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8067,8 +8095,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8105,14 +8138,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 54773-2019</t>
+          <t>A 52743-2019</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>43755</v>
+        <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8125,7 +8158,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8162,14 +8195,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 55857-2019</t>
+          <t>A 54773-2019</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>43759</v>
+        <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8182,7 +8215,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8219,14 +8252,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55774-2019</t>
+          <t>A 55857-2019</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>43761</v>
+        <v>43759</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8239,7 +8272,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8276,14 +8309,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 55742-2019</t>
+          <t>A 55774-2019</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8296,7 +8329,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8333,14 +8366,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 57453-2019</t>
+          <t>A 55742-2019</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43767</v>
+        <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8353,7 +8386,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8390,14 +8423,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 58287-2019</t>
+          <t>A 57453-2019</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>43770</v>
+        <v>43767</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8410,7 +8443,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8447,14 +8480,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 59734-2019</t>
+          <t>A 58287-2019</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>43776</v>
+        <v>43770</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8467,7 +8500,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8504,14 +8537,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 59926-2019</t>
+          <t>A 59734-2019</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43777</v>
+        <v>43776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8523,13 +8556,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8566,14 +8594,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61392-2019</t>
+          <t>A 59926-2019</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43783</v>
+        <v>43777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8585,8 +8613,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8623,14 +8656,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 62841-2019</t>
+          <t>A 61392-2019</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43790</v>
+        <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8642,13 +8675,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8685,14 +8713,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 63469-2019</t>
+          <t>A 62841-2019</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>43794</v>
+        <v>43790</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8704,8 +8732,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8742,14 +8775,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 66206-2019</t>
+          <t>A 63469-2019</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>43808</v>
+        <v>43794</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8762,7 +8795,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8799,14 +8832,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 66410-2019</t>
+          <t>A 66206-2019</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>43809</v>
+        <v>43808</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8819,7 +8852,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8856,14 +8889,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 67138-2019</t>
+          <t>A 66410-2019</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43811</v>
+        <v>43809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8876,7 +8909,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>10.5</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8913,14 +8946,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 67418-2019</t>
+          <t>A 67138-2019</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8932,13 +8965,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8975,14 +9003,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 67417-2019</t>
+          <t>A 67418-2019</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9000,7 +9028,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9037,14 +9065,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 68555-2019</t>
+          <t>A 67417-2019</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>43818</v>
+        <v>43812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9058,11 +9086,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9099,14 +9127,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 743-2020</t>
+          <t>A 68555-2019</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43838</v>
+        <v>43818</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9118,8 +9146,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9156,14 +9189,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 2786-2020</t>
+          <t>A 743-2020</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>43850</v>
+        <v>43838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9176,7 +9209,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9213,14 +9246,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 3383-2020</t>
+          <t>A 2786-2020</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>43852</v>
+        <v>43850</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9233,7 +9266,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9270,14 +9303,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 3975-2020</t>
+          <t>A 3383-2020</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>43854</v>
+        <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9290,7 +9323,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9327,14 +9360,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 3974-2020</t>
+          <t>A 3975-2020</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9347,7 +9380,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9384,14 +9417,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 3854-2020</t>
+          <t>A 3974-2020</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9404,7 +9437,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>9.1</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9441,14 +9474,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 3976-2020</t>
+          <t>A 3854-2020</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>43855</v>
+        <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9461,7 +9494,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.6</v>
+        <v>9.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9498,14 +9531,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 6046-2020</t>
+          <t>A 3976-2020</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>43865</v>
+        <v>43855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9517,13 +9550,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9560,14 +9588,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 7240-2020</t>
+          <t>A 6046-2020</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>43871</v>
+        <v>43865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9585,7 +9613,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9622,14 +9650,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 7725-2020</t>
+          <t>A 7240-2020</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>43872</v>
+        <v>43871</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9641,8 +9669,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9679,14 +9712,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 7841-2020</t>
+          <t>A 7725-2020</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>43873</v>
+        <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9699,7 +9732,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9736,14 +9769,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 7982-2020</t>
+          <t>A 7841-2020</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9756,7 +9789,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9793,14 +9826,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 7989-2020</t>
+          <t>A 7982-2020</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9813,7 +9846,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9850,14 +9883,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 9138-2020</t>
+          <t>A 7989-2020</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>43879</v>
+        <v>43873</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9869,13 +9902,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9912,14 +9940,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 9218-2020</t>
+          <t>A 9138-2020</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9931,8 +9959,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9969,14 +10002,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 10833-2020</t>
+          <t>A 9218-2020</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>43888</v>
+        <v>43879</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9989,7 +10022,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10026,14 +10059,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 11121-2020</t>
+          <t>A 10833-2020</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10046,7 +10079,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10083,14 +10116,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 12268-2020</t>
+          <t>A 11121-2020</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>43895</v>
+        <v>43889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10103,7 +10136,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10140,14 +10173,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 14242-2020</t>
+          <t>A 12268-2020</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>43901</v>
+        <v>43895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10159,13 +10192,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10202,14 +10230,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 13978-2020</t>
+          <t>A 14242-2020</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10221,8 +10249,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10259,14 +10292,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18035-2020</t>
+          <t>A 13978-2020</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>43927</v>
+        <v>43906</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10278,13 +10311,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10321,14 +10349,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 19054-2020</t>
+          <t>A 18035-2020</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>43936</v>
+        <v>43927</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10340,8 +10368,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>13.1</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10378,14 +10411,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 19873-2020</t>
+          <t>A 19054-2020</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>43942</v>
+        <v>43936</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10398,7 +10431,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.4</v>
+        <v>13.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10435,14 +10468,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 21080-2020</t>
+          <t>A 19873-2020</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>43951</v>
+        <v>43942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10454,13 +10487,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10497,14 +10525,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 21379-2020</t>
+          <t>A 21080-2020</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>43955</v>
+        <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10518,11 +10546,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10559,14 +10587,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 21981-2020</t>
+          <t>A 21379-2020</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10584,7 +10612,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10621,14 +10649,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 22385-2020</t>
+          <t>A 21981-2020</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>43962</v>
+        <v>43959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10646,7 +10674,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10683,14 +10711,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 24780-2020</t>
+          <t>A 22385-2020</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>43978</v>
+        <v>43962</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10702,8 +10730,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10740,14 +10773,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 25009-2020</t>
+          <t>A 24780-2020</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10759,13 +10792,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10802,14 +10830,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 25220-2020</t>
+          <t>A 25009-2020</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10821,8 +10849,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10859,14 +10892,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 25532-2020</t>
+          <t>A 25220-2020</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>43983</v>
+        <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10878,13 +10911,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>0.3</v>
+        <v>9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10921,14 +10949,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 26790-2020</t>
+          <t>A 25532-2020</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>43990</v>
+        <v>43983</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10940,8 +10968,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10978,14 +11011,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 26781-2020</t>
+          <t>A 26790-2020</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10998,7 +11031,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11035,14 +11068,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 26763-2020</t>
+          <t>A 26781-2020</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11055,7 +11088,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11092,14 +11125,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 28173-2020</t>
+          <t>A 26763-2020</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>43997</v>
+        <v>43990</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11112,7 +11145,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11149,14 +11182,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 28806-2020</t>
+          <t>A 28173-2020</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44000</v>
+        <v>43997</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11168,13 +11201,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11211,14 +11239,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 28825-2020</t>
+          <t>A 28806-2020</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11236,7 +11264,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11273,14 +11301,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 29564-2020</t>
+          <t>A 28825-2020</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44005</v>
+        <v>44000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11298,7 +11326,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11335,14 +11363,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 29940-2020</t>
+          <t>A 29564-2020</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11356,11 +11384,11 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11397,14 +11425,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 30851-2020</t>
+          <t>A 29940-2020</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44011</v>
+        <v>44006</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11418,11 +11446,11 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11459,14 +11487,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 31747-2020</t>
+          <t>A 30851-2020</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44014</v>
+        <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11484,7 +11512,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11521,14 +11549,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 32223-2020</t>
+          <t>A 31747-2020</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11546,7 +11574,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11583,14 +11611,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 32231-2020</t>
+          <t>A 32223-2020</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11608,7 +11636,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11645,14 +11673,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 33351-2020</t>
+          <t>A 32231-2020</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44022</v>
+        <v>44015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11666,11 +11694,11 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.4</v>
+        <v>5.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11707,14 +11735,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 33893-2020</t>
+          <t>A 33351-2020</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44025</v>
+        <v>44022</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11732,7 +11760,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11769,14 +11797,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 33755-2020</t>
+          <t>A 33893-2020</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11790,11 +11818,11 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11831,14 +11859,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 35533-2020</t>
+          <t>A 33755-2020</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44043</v>
+        <v>44026</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11850,8 +11878,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>2.1</v>
+        <v>7.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11888,14 +11921,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 37604-2020</t>
+          <t>A 35533-2020</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44056</v>
+        <v>44043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11908,7 +11941,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11945,14 +11978,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 37721-2020</t>
+          <t>A 37604-2020</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11965,7 +11998,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12002,14 +12035,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 37717-2020</t>
+          <t>A 37721-2020</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12021,13 +12054,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12064,14 +12092,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 38300-2020</t>
+          <t>A 37717-2020</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44060</v>
+        <v>44056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12089,7 +12117,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>12</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12126,14 +12154,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 38305-2020</t>
+          <t>A 38300-2020</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12151,7 +12179,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12188,14 +12216,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 38926-2020</t>
+          <t>A 38305-2020</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44062</v>
+        <v>44060</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12207,8 +12235,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12245,14 +12278,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 39798-2020</t>
+          <t>A 38926-2020</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44067</v>
+        <v>44062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12265,7 +12298,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12302,14 +12335,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 40340-2020</t>
+          <t>A 39798-2020</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12321,13 +12354,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12364,14 +12392,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 40087-2020</t>
+          <t>A 40340-2020</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12383,8 +12411,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12421,14 +12454,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 40626-2020</t>
+          <t>A 40087-2020</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12441,7 +12474,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12478,14 +12511,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 42351-2020</t>
+          <t>A 40626-2020</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44076</v>
+        <v>44069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12498,7 +12531,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>10.6</v>
+        <v>3.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12535,14 +12568,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 42356-2020</t>
+          <t>A 42351-2020</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12555,7 +12588,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.6</v>
+        <v>10.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12592,14 +12625,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 42357-2020</t>
+          <t>A 42356-2020</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12612,7 +12645,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12649,14 +12682,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 42868-2020</t>
+          <t>A 42357-2020</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12669,7 +12702,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12706,14 +12739,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 43185-2020</t>
+          <t>A 42868-2020</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12725,13 +12758,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12768,14 +12796,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 43385-2020</t>
+          <t>A 43185-2020</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12793,7 +12821,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12830,14 +12858,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 44350-2020</t>
+          <t>A 43385-2020</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44084</v>
+        <v>44081</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12855,7 +12883,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12892,14 +12920,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 44780-2020</t>
+          <t>A 44350-2020</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12911,8 +12939,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12949,14 +12982,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 44769-2020</t>
+          <t>A 44780-2020</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12969,7 +13002,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13006,14 +13039,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 46455-2020</t>
+          <t>A 44769-2020</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44095</v>
+        <v>44085</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13025,13 +13058,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13068,14 +13096,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 46694-2020</t>
+          <t>A 46455-2020</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13093,7 +13121,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13130,14 +13158,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 46444-2020</t>
+          <t>A 46694-2020</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13155,7 +13183,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13192,14 +13220,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 46708-2020</t>
+          <t>A 46444-2020</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13217,7 +13245,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13254,14 +13282,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 46925-2020</t>
+          <t>A 46708-2020</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13273,8 +13301,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13311,14 +13344,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 46898-2020</t>
+          <t>A 46925-2020</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13330,13 +13363,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13373,14 +13401,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 50216-2020</t>
+          <t>A 46898-2020</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44109</v>
+        <v>44096</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13392,8 +13420,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>7.9</v>
+        <v>2.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13430,14 +13463,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51126-2020</t>
+          <t>A 50216-2020</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44112</v>
+        <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13449,13 +13482,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>7.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13492,14 +13520,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 51121-2020</t>
+          <t>A 51126-2020</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13517,7 +13545,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13554,14 +13582,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 52790-2020</t>
+          <t>A 51121-2020</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44118</v>
+        <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13575,11 +13603,11 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13616,14 +13644,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 53470-2020</t>
+          <t>A 52790-2020</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44123</v>
+        <v>44118</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13635,8 +13663,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13673,14 +13706,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 53517-2020</t>
+          <t>A 53470-2020</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13692,13 +13725,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13735,14 +13763,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 54031-2020</t>
+          <t>A 53517-2020</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13760,7 +13788,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13797,14 +13825,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 54053-2020</t>
+          <t>A 54031-2020</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13822,7 +13850,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13859,14 +13887,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 54065-2020</t>
+          <t>A 54053-2020</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13884,7 +13912,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13921,14 +13949,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 54249-2020</t>
+          <t>A 54065-2020</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13940,8 +13968,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13978,14 +14011,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54294-2020</t>
+          <t>A 54249-2020</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13997,13 +14030,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14040,14 +14068,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 54616-2020</t>
+          <t>A 54294-2020</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14065,7 +14093,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14102,14 +14130,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 54638-2020</t>
+          <t>A 54616-2020</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14127,7 +14155,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14164,14 +14192,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 54624-2020</t>
+          <t>A 54638-2020</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14189,7 +14217,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14226,14 +14254,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 54620-2020</t>
+          <t>A 54624-2020</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14251,7 +14279,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14288,14 +14316,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 56221-2020</t>
+          <t>A 54620-2020</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44134</v>
+        <v>44127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14307,8 +14335,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14345,14 +14378,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 57535-2020</t>
+          <t>A 56221-2020</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44140</v>
+        <v>44134</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14365,7 +14398,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14402,14 +14435,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 58189-2020</t>
+          <t>A 57535-2020</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44144</v>
+        <v>44140</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14422,7 +14455,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14459,14 +14492,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 58690-2020</t>
+          <t>A 58189-2020</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14479,7 +14512,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14516,14 +14549,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 59072-2020</t>
+          <t>A 58690-2020</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14536,7 +14569,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14573,14 +14606,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 60249-2020</t>
+          <t>A 59072-2020</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44152</v>
+        <v>44147</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14592,13 +14625,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14635,14 +14663,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 60951-2020</t>
+          <t>A 60249-2020</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14654,8 +14682,13 @@
           <t>GÄVLE</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14692,14 +14725,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 60953-2020</t>
+          <t>A 60951-2020</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14712,7 +14745,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14749,14 +14782,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 61694-2020</t>
+          <t>A 60953-2020</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44158</v>
+        <v>44154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14769,7 +14802,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>11.8</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14806,14 +14839,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61704-2020</t>
+          <t>A 61694-2020</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14826,7 +14859,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.2</v>
+        <v>11.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14863,14 +14896,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 62316-2020</t>
+          <t>A 61704-2020</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14882,13 +14915,8 @@
           <t>GÄVLE</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14932,7 +14960,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +15017,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15074,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15131,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15165,7 +15193,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15227,7 +15255,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15289,7 +15317,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15351,7 +15379,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15413,7 +15441,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15475,7 +15503,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15537,7 +15565,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15599,7 +15627,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15661,7 +15689,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15723,7 +15751,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15785,7 +15813,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15847,7 +15875,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15909,7 +15937,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15966,7 +15994,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16023,7 +16051,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16080,7 +16108,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16137,7 +16165,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16194,7 +16222,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16251,7 +16279,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16308,7 +16336,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16365,7 +16393,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16422,7 +16450,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16479,7 +16507,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16536,7 +16564,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16593,7 +16621,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16650,7 +16678,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16707,7 +16735,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16769,7 +16797,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16826,7 +16854,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16883,7 +16911,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16945,7 +16973,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17007,7 +17035,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17069,7 +17097,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17126,7 +17154,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17188,7 +17216,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17250,7 +17278,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17312,7 +17340,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17374,7 +17402,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17431,7 +17459,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17493,7 +17521,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17583,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17640,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17674,7 +17702,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17736,7 +17764,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17798,7 +17826,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17860,7 +17888,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17917,7 +17945,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17974,7 +18002,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18031,7 +18059,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18093,7 +18121,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18155,7 +18183,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18217,7 +18245,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18279,7 +18307,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18341,7 +18369,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18403,7 +18431,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18460,7 +18488,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18517,7 +18545,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18579,7 +18607,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18636,7 +18664,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18693,7 +18721,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18750,7 +18778,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18807,7 +18835,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18869,7 +18897,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18931,7 +18959,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18993,7 +19021,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19055,7 +19083,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19117,7 +19145,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19179,7 +19207,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19236,7 +19264,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19293,7 +19321,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19355,7 +19383,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19417,7 +19445,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19474,7 +19502,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19531,7 +19559,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19588,7 +19616,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19650,7 +19678,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19707,7 +19735,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19764,7 +19792,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19821,7 +19849,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19883,7 +19911,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19940,7 +19968,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19997,7 +20025,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20059,7 +20087,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20121,7 +20149,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20183,7 +20211,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20245,7 +20273,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20307,7 +20335,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20369,7 +20397,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20431,7 +20459,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20488,7 +20516,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20545,7 +20573,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20607,7 +20635,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20669,7 +20697,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20726,7 +20754,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20783,7 +20811,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20845,7 +20873,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20902,7 +20930,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20964,7 +20992,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21026,7 +21054,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21083,7 +21111,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21145,7 +21173,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21207,7 +21235,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21269,7 +21297,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21331,7 +21359,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21393,7 +21421,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21450,7 +21478,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21512,7 +21540,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21574,7 +21602,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21636,7 +21664,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21698,7 +21726,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21760,7 +21788,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21817,7 +21845,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21879,7 +21907,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21941,7 +21969,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21998,7 +22026,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22055,7 +22083,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22117,7 +22145,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22174,7 +22202,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22231,7 +22259,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22288,7 +22316,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22345,7 +22373,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22407,7 +22435,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22469,7 +22497,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22531,7 +22559,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22588,7 +22616,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22645,7 +22673,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22702,7 +22730,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22759,7 +22787,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22821,7 +22849,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22878,7 +22906,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22940,7 +22968,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23002,7 +23030,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23064,7 +23092,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23121,7 +23149,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23183,7 +23211,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23240,7 +23268,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23302,7 +23330,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23364,7 +23392,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23426,7 +23454,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23483,7 +23511,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23540,7 +23568,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23597,7 +23625,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23654,7 +23682,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23711,7 +23739,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23768,7 +23796,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23830,7 +23858,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23887,7 +23915,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23949,7 +23977,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24011,7 +24039,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24073,7 +24101,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24130,7 +24158,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24187,7 +24215,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24244,7 +24272,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24301,7 +24329,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24363,7 +24391,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24425,7 +24453,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24487,7 +24515,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24544,7 +24572,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24601,7 +24629,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24658,7 +24686,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24715,7 +24743,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24772,7 +24800,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24829,7 +24857,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24886,7 +24914,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24943,7 +24971,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25005,7 +25033,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25067,7 +25095,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25129,7 +25157,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25186,7 +25214,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25243,7 +25271,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25300,7 +25328,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25362,7 +25390,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25424,7 +25452,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25481,7 +25509,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25538,7 +25566,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25600,7 +25628,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25662,7 +25690,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25719,7 +25747,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25776,7 +25804,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25838,7 +25866,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25900,7 +25928,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25962,7 +25990,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26019,7 +26047,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26076,7 +26104,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26138,7 +26166,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26195,7 +26223,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26257,7 +26285,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26319,7 +26347,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26381,7 +26409,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26443,7 +26471,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26505,7 +26533,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26562,7 +26590,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26624,7 +26652,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26681,7 +26709,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26743,7 +26771,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26805,7 +26833,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26867,7 +26895,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26924,7 +26952,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26986,7 +27014,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27048,7 +27076,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27105,7 +27133,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27162,7 +27190,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27219,7 +27247,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27276,7 +27304,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27333,7 +27361,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27390,7 +27418,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27447,7 +27475,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27504,7 +27532,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27561,7 +27589,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27618,7 +27646,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27680,7 +27708,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27742,7 +27770,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27799,7 +27827,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27856,7 +27884,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27913,7 +27941,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27970,7 +27998,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28027,7 +28055,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28089,7 +28117,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44160</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44602</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44721</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44811</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43332</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43478</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43508</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43511</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43567</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43579</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43601</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43650</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43662</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43721</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43728</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43759</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43767</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43770</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43790</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43794</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43808</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43811</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43818</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43850</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43871</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43873</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43879</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>43888</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43906</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43927</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43936</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43955</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43962</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43983</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43990</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43997</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44006</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44014</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44022</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44025</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44026</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44060</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44067</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44078</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44081</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44085</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44096</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44118</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44123</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44134</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44140</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44144</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44147</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44152</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44160</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44602</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44721</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44811</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43332</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43478</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43508</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43511</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43567</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43579</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43601</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43650</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43662</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43721</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43728</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43759</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43767</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43770</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43790</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43794</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43808</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43811</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43818</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43850</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43871</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43873</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43879</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>43888</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43906</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43927</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43936</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43955</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43962</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43983</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43990</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43997</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44006</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44014</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44022</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44025</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44026</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44060</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44067</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44078</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44081</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44085</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44096</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44118</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44123</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44134</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44140</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44144</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44147</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44152</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44160</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44602</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44721</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44811</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43332</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43478</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43508</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43511</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43567</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43579</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43601</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43650</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43662</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43721</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43728</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43759</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43767</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43770</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43790</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43794</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43808</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43811</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43818</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43850</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43871</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43873</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43879</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>43888</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43906</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43927</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43936</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43955</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43962</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43983</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43990</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43997</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44006</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44014</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44022</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44025</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44026</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44060</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44067</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44078</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44081</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44085</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44096</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44118</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44123</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44134</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44140</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44144</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44147</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44152</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44160</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44602</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44721</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44811</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43332</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43478</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43508</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43511</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43567</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43579</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43601</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43650</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43662</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43721</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43728</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43759</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43767</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43770</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43790</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43794</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43808</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43811</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43818</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43850</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43871</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43873</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43879</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>43888</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43906</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43927</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43936</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43955</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43962</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43983</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43990</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43997</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44006</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44014</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44022</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44025</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44026</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44060</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44067</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44078</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44081</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44085</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44096</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44118</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44123</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44134</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44140</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44144</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44147</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44152</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44160</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44602</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44721</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44811</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43332</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43478</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43508</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43511</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43567</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43579</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43601</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43650</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43662</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43721</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43728</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43759</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43767</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43770</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43790</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43794</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43808</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43811</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43818</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43850</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43871</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43873</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43879</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>43888</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43906</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43927</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43936</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43955</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43962</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43983</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43990</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43997</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44006</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44014</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44022</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44025</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44026</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44060</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44067</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44078</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44081</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44085</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44096</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44118</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44123</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44134</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44140</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44144</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44147</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44152</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44160</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44602</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44721</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44811</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43332</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43478</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43508</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43511</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43567</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43579</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43601</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43650</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43662</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43721</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43728</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43759</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43767</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43770</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43790</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43794</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43808</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43811</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43818</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43850</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43871</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43873</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43879</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>43888</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43906</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43927</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43936</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43955</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43962</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43983</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43990</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43997</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44006</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44014</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44022</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44025</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44026</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44060</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44067</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44078</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44081</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44085</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44096</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44118</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44123</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44134</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44140</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44144</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44147</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44152</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44160</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44602</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44721</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44811</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43332</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43478</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43508</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43511</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43567</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43579</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43601</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43650</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43662</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43721</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43728</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43759</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43767</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43770</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43790</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43794</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43808</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43811</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43818</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43850</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43871</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43873</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43879</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>43888</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43906</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43927</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43936</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43955</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43962</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43983</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43990</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43997</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44006</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44014</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44022</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44025</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44026</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44060</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44067</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44078</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44081</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44085</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44096</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44118</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44123</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44134</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44140</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44144</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44147</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44152</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44160</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44602</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44721</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44811</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43332</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43478</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43508</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43511</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43567</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43579</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43601</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43650</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43662</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43721</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43728</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43759</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43767</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43770</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43790</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43794</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43808</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43811</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43818</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43850</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43871</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43873</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43879</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>43888</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43906</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43927</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43936</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43955</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43962</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43983</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43990</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43997</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44006</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44014</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44022</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44025</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44026</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44060</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44067</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44078</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44081</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44085</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44096</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44118</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44123</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44134</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44140</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44144</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44147</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44152</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -572,7 +572,7 @@
         <v>43928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44494</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>43812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>44840</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>43721</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>43812</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45121</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44272</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>44314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45019</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45041</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45117</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>43588</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44144</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44160</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44602</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>44658</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>44721</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44790</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44811</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45055</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>43332</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>43348</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>43360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43382</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43403</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43411</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>43413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>43417</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43417</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43418</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>43418</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>43423</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43424</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43431</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43440</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>43447</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>43447</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43453</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>43454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>43473</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
         <v>43478</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>43480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         <v>43481</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>43482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43489</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43489</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
         <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5458,7 +5458,7 @@
         <v>43495</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>43508</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>43509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>43511</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>43530</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>43537</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43567</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43579</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43588</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43601</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43614</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43635</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43636</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43650</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43651</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43662</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43696</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43696</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         <v>43698</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43707</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         <v>43714</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43719</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>43721</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43728</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43728</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43732</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>43746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43755</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43759</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>43761</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>43761</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>43767</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>43770</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>43776</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>43777</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>43790</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>43794</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>43808</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>43809</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>43811</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         <v>43812</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43812</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43818</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43838</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43850</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43854</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43854</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43854</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43855</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43871</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43872</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43873</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43873</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43873</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43879</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>43879</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>43888</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         <v>43895</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>43901</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>43906</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>43927</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43936</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>43942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>43951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43955</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>43959</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>43962</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43983</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>43990</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43990</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>43997</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44000</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44000</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44006</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>44014</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44015</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44022</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>44025</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
         <v>44026</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>44043</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>44056</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>44056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>44056</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>44060</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44060</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44062</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44067</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44068</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44069</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44076</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>44076</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>44078</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44081</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>44081</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         <v>44084</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44085</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>44085</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>44095</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44095</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>44095</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44095</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44096</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>44096</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44109</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44112</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44112</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>44118</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44123</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44125</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44125</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44126</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44127</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44127</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44127</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44127</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>44134</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44140</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44144</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44146</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>44147</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>44152</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>44154</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44154</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>44158</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44158</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44160</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>44162</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44175</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44176</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44192</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44192</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44192</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44192</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>44192</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15689,7 +15689,7 @@
         <v>44192</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44192</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>44192</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>44200</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>44204</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>44216</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>44223</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>44228</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>44231</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>44235</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44235</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44252</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44258</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44258</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44260</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44263</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44271</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>44279</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44284</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44286</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44286</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44286</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44294</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44295</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44300</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44305</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44307</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>44308</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>44316</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17521,7 +17521,7 @@
         <v>44316</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>44319</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>44334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17764,7 +17764,7 @@
         <v>44342</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44347</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>44356</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>44364</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>44376</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44377</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
         <v>44389</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>44390</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>44390</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44414</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44421</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44427</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44437</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44438</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44439</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>44445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44448</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44452</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>44455</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44455</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44461</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>44466</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>44473</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44490</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19207,7 +19207,7 @@
         <v>44491</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>44494</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44517</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44519</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44526</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44533</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44538</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>44539</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44546</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>44546</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>44571</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>44573</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>44579</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>44586</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44586</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>44586</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20273,7 +20273,7 @@
         <v>44588</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44589</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44599</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44599</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44600</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44606</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44629</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44636</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44636</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20873,7 +20873,7 @@
         <v>44651</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>44651</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44655</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44656</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44658</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21173,7 +21173,7 @@
         <v>44663</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>44684</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44684</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44684</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44691</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44693</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>44693</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44694</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44694</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44701</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44708</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44713</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         <v>44720</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>44735</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22026,7 +22026,7 @@
         <v>44735</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>44750</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44756</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44757</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44763</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44775</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44775</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44776</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>44782</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>44800</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44800</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44802</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44804</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44805</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>44810</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>44818</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44820</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>44823</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23268,7 +23268,7 @@
         <v>44824</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>44840</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44840</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44841</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44845</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44845</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44846</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44853</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44853</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44867</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44867</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44876</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>44876</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44881</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44882</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44882</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44885</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44887</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44888</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>44904</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44910</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>44910</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>44922</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44922</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44922</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44927</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44936</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>44942</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44944</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44946</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44951</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44951</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44959</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25271,7 +25271,7 @@
         <v>44959</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>44967</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         <v>44970</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44973</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         <v>44978</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25566,7 +25566,7 @@
         <v>44979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44979</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>44984</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44985</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>44986</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44988</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>44991</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>44994</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>44995</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>45009</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45014</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45015</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45022</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45022</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45022</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45022</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45026</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45029</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>45034</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45036</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45040</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45040</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45040</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45054</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>45056</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45069</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45070</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45072</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45082</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45084</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45084</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45098</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45103</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45106</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45113</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45113</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>45117</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45133</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45133</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45133</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45141</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45162</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28055,7 +28055,7 @@
         <v>45169</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
